--- a/datos_reales.xlsx
+++ b/datos_reales.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4003" uniqueCount="56">
   <si>
     <t>AÑO</t>
   </si>
@@ -182,6 +182,12 @@
   <si>
     <t>TABATHA</t>
   </si>
+  <si>
+    <t>AGOSTO</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
 </sst>
 </file>
 
@@ -204,12 +210,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -239,11 +257,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G769"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" zoomScale="70" workbookViewId="0">
-      <selection activeCell="G422" sqref="A394:G422"/>
+    <sheetView tabSelected="1" topLeftCell="A767" zoomScale="70" workbookViewId="0">
+      <selection activeCell="A770" sqref="A770:G1000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18246,6 +18266,5319 @@
         <v>4590</v>
       </c>
     </row>
+    <row r="770" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A770">
+        <v>2025</v>
+      </c>
+      <c r="B770" t="s">
+        <v>54</v>
+      </c>
+      <c r="C770">
+        <v>33</v>
+      </c>
+      <c r="D770" t="s">
+        <v>13</v>
+      </c>
+      <c r="E770" t="s">
+        <v>24</v>
+      </c>
+      <c r="F770" t="s">
+        <v>25</v>
+      </c>
+      <c r="G770">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A771">
+        <v>2025</v>
+      </c>
+      <c r="B771" t="s">
+        <v>54</v>
+      </c>
+      <c r="C771">
+        <v>33</v>
+      </c>
+      <c r="D771" t="s">
+        <v>13</v>
+      </c>
+      <c r="E771" t="s">
+        <v>24</v>
+      </c>
+      <c r="F771" t="s">
+        <v>26</v>
+      </c>
+      <c r="G771" s="2">
+        <v>14099</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A772">
+        <v>2025</v>
+      </c>
+      <c r="B772" t="s">
+        <v>54</v>
+      </c>
+      <c r="C772">
+        <v>33</v>
+      </c>
+      <c r="D772" t="s">
+        <v>13</v>
+      </c>
+      <c r="E772" t="s">
+        <v>24</v>
+      </c>
+      <c r="F772" t="s">
+        <v>27</v>
+      </c>
+      <c r="G772">
+        <v>6711</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A773">
+        <v>2025</v>
+      </c>
+      <c r="B773" t="s">
+        <v>54</v>
+      </c>
+      <c r="C773">
+        <v>33</v>
+      </c>
+      <c r="D773" t="s">
+        <v>14</v>
+      </c>
+      <c r="E773" t="s">
+        <v>24</v>
+      </c>
+      <c r="F773" t="s">
+        <v>28</v>
+      </c>
+      <c r="G773">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A774">
+        <v>2025</v>
+      </c>
+      <c r="B774" t="s">
+        <v>54</v>
+      </c>
+      <c r="C774">
+        <v>33</v>
+      </c>
+      <c r="D774" t="s">
+        <v>15</v>
+      </c>
+      <c r="E774" t="s">
+        <v>24</v>
+      </c>
+      <c r="F774" t="s">
+        <v>29</v>
+      </c>
+      <c r="G774">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A775">
+        <v>2025</v>
+      </c>
+      <c r="B775" t="s">
+        <v>54</v>
+      </c>
+      <c r="C775">
+        <v>33</v>
+      </c>
+      <c r="D775" t="s">
+        <v>16</v>
+      </c>
+      <c r="E775" t="s">
+        <v>24</v>
+      </c>
+      <c r="F775" t="s">
+        <v>30</v>
+      </c>
+      <c r="G775">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A776">
+        <v>2025</v>
+      </c>
+      <c r="B776" t="s">
+        <v>54</v>
+      </c>
+      <c r="C776">
+        <v>33</v>
+      </c>
+      <c r="D776" t="s">
+        <v>16</v>
+      </c>
+      <c r="E776" t="s">
+        <v>24</v>
+      </c>
+      <c r="F776" t="s">
+        <v>31</v>
+      </c>
+      <c r="G776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A777">
+        <v>2025</v>
+      </c>
+      <c r="B777" t="s">
+        <v>54</v>
+      </c>
+      <c r="C777">
+        <v>33</v>
+      </c>
+      <c r="D777" t="s">
+        <v>17</v>
+      </c>
+      <c r="E777" t="s">
+        <v>24</v>
+      </c>
+      <c r="F777" t="s">
+        <v>32</v>
+      </c>
+      <c r="G777">
+        <v>12630</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A778">
+        <v>2025</v>
+      </c>
+      <c r="B778" t="s">
+        <v>54</v>
+      </c>
+      <c r="C778">
+        <v>33</v>
+      </c>
+      <c r="D778" t="s">
+        <v>17</v>
+      </c>
+      <c r="E778" t="s">
+        <v>24</v>
+      </c>
+      <c r="F778" t="s">
+        <v>33</v>
+      </c>
+      <c r="G778">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A779">
+        <v>2025</v>
+      </c>
+      <c r="B779" t="s">
+        <v>54</v>
+      </c>
+      <c r="C779">
+        <v>33</v>
+      </c>
+      <c r="D779" t="s">
+        <v>17</v>
+      </c>
+      <c r="E779" t="s">
+        <v>24</v>
+      </c>
+      <c r="F779" t="s">
+        <v>34</v>
+      </c>
+      <c r="G779">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A780">
+        <v>2025</v>
+      </c>
+      <c r="B780" t="s">
+        <v>54</v>
+      </c>
+      <c r="C780">
+        <v>33</v>
+      </c>
+      <c r="D780" t="s">
+        <v>17</v>
+      </c>
+      <c r="E780" t="s">
+        <v>24</v>
+      </c>
+      <c r="F780" t="s">
+        <v>35</v>
+      </c>
+      <c r="G780">
+        <v>6092</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A781">
+        <v>2025</v>
+      </c>
+      <c r="B781" t="s">
+        <v>54</v>
+      </c>
+      <c r="C781">
+        <v>33</v>
+      </c>
+      <c r="D781" t="s">
+        <v>18</v>
+      </c>
+      <c r="E781" t="s">
+        <v>24</v>
+      </c>
+      <c r="F781" t="s">
+        <v>36</v>
+      </c>
+      <c r="G781">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A782">
+        <v>2025</v>
+      </c>
+      <c r="B782" t="s">
+        <v>54</v>
+      </c>
+      <c r="C782">
+        <v>33</v>
+      </c>
+      <c r="D782" t="s">
+        <v>19</v>
+      </c>
+      <c r="E782" t="s">
+        <v>24</v>
+      </c>
+      <c r="F782" t="s">
+        <v>37</v>
+      </c>
+      <c r="G782">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A783">
+        <v>2025</v>
+      </c>
+      <c r="B783" t="s">
+        <v>54</v>
+      </c>
+      <c r="C783">
+        <v>33</v>
+      </c>
+      <c r="D783" t="s">
+        <v>19</v>
+      </c>
+      <c r="E783" t="s">
+        <v>24</v>
+      </c>
+      <c r="F783" t="s">
+        <v>38</v>
+      </c>
+      <c r="G783">
+        <v>6549</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A784">
+        <v>2025</v>
+      </c>
+      <c r="B784" t="s">
+        <v>54</v>
+      </c>
+      <c r="C784">
+        <v>33</v>
+      </c>
+      <c r="D784" t="s">
+        <v>19</v>
+      </c>
+      <c r="E784" t="s">
+        <v>24</v>
+      </c>
+      <c r="F784" t="s">
+        <v>39</v>
+      </c>
+      <c r="G784">
+        <v>8670</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A785">
+        <v>2025</v>
+      </c>
+      <c r="B785" t="s">
+        <v>54</v>
+      </c>
+      <c r="C785">
+        <v>33</v>
+      </c>
+      <c r="D785" t="s">
+        <v>19</v>
+      </c>
+      <c r="E785" t="s">
+        <v>24</v>
+      </c>
+      <c r="F785" t="s">
+        <v>40</v>
+      </c>
+      <c r="G785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A786">
+        <v>2025</v>
+      </c>
+      <c r="B786" t="s">
+        <v>54</v>
+      </c>
+      <c r="C786">
+        <v>33</v>
+      </c>
+      <c r="D786" t="s">
+        <v>20</v>
+      </c>
+      <c r="E786" t="s">
+        <v>24</v>
+      </c>
+      <c r="F786" t="s">
+        <v>41</v>
+      </c>
+      <c r="G786">
+        <v>18950</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A787">
+        <v>2025</v>
+      </c>
+      <c r="B787" t="s">
+        <v>54</v>
+      </c>
+      <c r="C787">
+        <v>33</v>
+      </c>
+      <c r="D787" t="s">
+        <v>20</v>
+      </c>
+      <c r="E787" t="s">
+        <v>24</v>
+      </c>
+      <c r="F787" t="s">
+        <v>42</v>
+      </c>
+      <c r="G787">
+        <v>7160</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A788">
+        <v>2025</v>
+      </c>
+      <c r="B788" t="s">
+        <v>54</v>
+      </c>
+      <c r="C788">
+        <v>33</v>
+      </c>
+      <c r="D788" t="s">
+        <v>21</v>
+      </c>
+      <c r="E788" t="s">
+        <v>24</v>
+      </c>
+      <c r="F788" t="s">
+        <v>43</v>
+      </c>
+      <c r="G788">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A789">
+        <v>2025</v>
+      </c>
+      <c r="B789" t="s">
+        <v>54</v>
+      </c>
+      <c r="C789">
+        <v>33</v>
+      </c>
+      <c r="D789" t="s">
+        <v>21</v>
+      </c>
+      <c r="E789" t="s">
+        <v>24</v>
+      </c>
+      <c r="F789" t="s">
+        <v>44</v>
+      </c>
+      <c r="G789">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A790">
+        <v>2025</v>
+      </c>
+      <c r="B790" t="s">
+        <v>54</v>
+      </c>
+      <c r="C790">
+        <v>33</v>
+      </c>
+      <c r="D790" t="s">
+        <v>21</v>
+      </c>
+      <c r="E790" t="s">
+        <v>24</v>
+      </c>
+      <c r="F790" t="s">
+        <v>45</v>
+      </c>
+      <c r="G790">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A791">
+        <v>2025</v>
+      </c>
+      <c r="B791" t="s">
+        <v>54</v>
+      </c>
+      <c r="C791">
+        <v>33</v>
+      </c>
+      <c r="D791" t="s">
+        <v>21</v>
+      </c>
+      <c r="E791" t="s">
+        <v>24</v>
+      </c>
+      <c r="F791" t="s">
+        <v>46</v>
+      </c>
+      <c r="G791">
+        <v>18582</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A792">
+        <v>2025</v>
+      </c>
+      <c r="B792" t="s">
+        <v>54</v>
+      </c>
+      <c r="C792">
+        <v>33</v>
+      </c>
+      <c r="D792" t="s">
+        <v>22</v>
+      </c>
+      <c r="E792" t="s">
+        <v>22</v>
+      </c>
+      <c r="F792" t="s">
+        <v>47</v>
+      </c>
+      <c r="G792" s="3">
+        <v>141558</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A793">
+        <v>2025</v>
+      </c>
+      <c r="B793" t="s">
+        <v>54</v>
+      </c>
+      <c r="C793">
+        <v>33</v>
+      </c>
+      <c r="D793" t="s">
+        <v>23</v>
+      </c>
+      <c r="E793" t="s">
+        <v>24</v>
+      </c>
+      <c r="F793" t="s">
+        <v>48</v>
+      </c>
+      <c r="G793">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A794">
+        <v>2025</v>
+      </c>
+      <c r="B794" t="s">
+        <v>54</v>
+      </c>
+      <c r="C794">
+        <v>33</v>
+      </c>
+      <c r="D794" t="s">
+        <v>23</v>
+      </c>
+      <c r="E794" t="s">
+        <v>24</v>
+      </c>
+      <c r="F794" t="s">
+        <v>49</v>
+      </c>
+      <c r="G794">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A795">
+        <v>2025</v>
+      </c>
+      <c r="B795" t="s">
+        <v>54</v>
+      </c>
+      <c r="C795">
+        <v>33</v>
+      </c>
+      <c r="D795" t="s">
+        <v>23</v>
+      </c>
+      <c r="E795" t="s">
+        <v>24</v>
+      </c>
+      <c r="F795" t="s">
+        <v>50</v>
+      </c>
+      <c r="G795">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A796">
+        <v>2025</v>
+      </c>
+      <c r="B796" t="s">
+        <v>54</v>
+      </c>
+      <c r="C796">
+        <v>33</v>
+      </c>
+      <c r="D796" t="s">
+        <v>23</v>
+      </c>
+      <c r="E796" t="s">
+        <v>24</v>
+      </c>
+      <c r="F796" t="s">
+        <v>51</v>
+      </c>
+      <c r="G796">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A797">
+        <v>2025</v>
+      </c>
+      <c r="B797" t="s">
+        <v>54</v>
+      </c>
+      <c r="C797">
+        <v>33</v>
+      </c>
+      <c r="D797" t="s">
+        <v>23</v>
+      </c>
+      <c r="E797" t="s">
+        <v>24</v>
+      </c>
+      <c r="F797" t="s">
+        <v>52</v>
+      </c>
+      <c r="G797">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A798">
+        <v>2025</v>
+      </c>
+      <c r="B798" t="s">
+        <v>54</v>
+      </c>
+      <c r="C798">
+        <v>33</v>
+      </c>
+      <c r="D798" t="s">
+        <v>23</v>
+      </c>
+      <c r="E798" t="s">
+        <v>24</v>
+      </c>
+      <c r="F798" t="s">
+        <v>53</v>
+      </c>
+      <c r="G798">
+        <v>7461</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A799">
+        <v>2025</v>
+      </c>
+      <c r="B799" t="s">
+        <v>54</v>
+      </c>
+      <c r="C799">
+        <v>34</v>
+      </c>
+      <c r="D799" t="s">
+        <v>13</v>
+      </c>
+      <c r="E799" t="s">
+        <v>24</v>
+      </c>
+      <c r="F799" t="s">
+        <v>25</v>
+      </c>
+      <c r="G799">
+        <v>4748</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A800">
+        <v>2025</v>
+      </c>
+      <c r="B800" t="s">
+        <v>54</v>
+      </c>
+      <c r="C800">
+        <v>34</v>
+      </c>
+      <c r="D800" t="s">
+        <v>13</v>
+      </c>
+      <c r="E800" t="s">
+        <v>24</v>
+      </c>
+      <c r="F800" t="s">
+        <v>26</v>
+      </c>
+      <c r="G800" s="2">
+        <v>9629</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A801">
+        <v>2025</v>
+      </c>
+      <c r="B801" t="s">
+        <v>54</v>
+      </c>
+      <c r="C801">
+        <v>34</v>
+      </c>
+      <c r="D801" t="s">
+        <v>13</v>
+      </c>
+      <c r="E801" t="s">
+        <v>24</v>
+      </c>
+      <c r="F801" t="s">
+        <v>27</v>
+      </c>
+      <c r="G801">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A802">
+        <v>2025</v>
+      </c>
+      <c r="B802" t="s">
+        <v>54</v>
+      </c>
+      <c r="C802">
+        <v>34</v>
+      </c>
+      <c r="D802" t="s">
+        <v>14</v>
+      </c>
+      <c r="E802" t="s">
+        <v>24</v>
+      </c>
+      <c r="F802" t="s">
+        <v>28</v>
+      </c>
+      <c r="G802">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A803">
+        <v>2025</v>
+      </c>
+      <c r="B803" t="s">
+        <v>54</v>
+      </c>
+      <c r="C803">
+        <v>34</v>
+      </c>
+      <c r="D803" t="s">
+        <v>15</v>
+      </c>
+      <c r="E803" t="s">
+        <v>24</v>
+      </c>
+      <c r="F803" t="s">
+        <v>29</v>
+      </c>
+      <c r="G803">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A804">
+        <v>2025</v>
+      </c>
+      <c r="B804" t="s">
+        <v>54</v>
+      </c>
+      <c r="C804">
+        <v>34</v>
+      </c>
+      <c r="D804" t="s">
+        <v>16</v>
+      </c>
+      <c r="E804" t="s">
+        <v>24</v>
+      </c>
+      <c r="F804" t="s">
+        <v>30</v>
+      </c>
+      <c r="G804">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A805">
+        <v>2025</v>
+      </c>
+      <c r="B805" t="s">
+        <v>54</v>
+      </c>
+      <c r="C805">
+        <v>34</v>
+      </c>
+      <c r="D805" t="s">
+        <v>17</v>
+      </c>
+      <c r="E805" t="s">
+        <v>24</v>
+      </c>
+      <c r="F805" t="s">
+        <v>32</v>
+      </c>
+      <c r="G805">
+        <v>10760</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A806">
+        <v>2025</v>
+      </c>
+      <c r="B806" t="s">
+        <v>54</v>
+      </c>
+      <c r="C806">
+        <v>34</v>
+      </c>
+      <c r="D806" t="s">
+        <v>17</v>
+      </c>
+      <c r="E806" t="s">
+        <v>24</v>
+      </c>
+      <c r="F806" t="s">
+        <v>33</v>
+      </c>
+      <c r="G806">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A807">
+        <v>2025</v>
+      </c>
+      <c r="B807" t="s">
+        <v>54</v>
+      </c>
+      <c r="C807">
+        <v>34</v>
+      </c>
+      <c r="D807" t="s">
+        <v>17</v>
+      </c>
+      <c r="E807" t="s">
+        <v>24</v>
+      </c>
+      <c r="F807" t="s">
+        <v>34</v>
+      </c>
+      <c r="G807">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A808">
+        <v>2025</v>
+      </c>
+      <c r="B808" t="s">
+        <v>54</v>
+      </c>
+      <c r="C808">
+        <v>34</v>
+      </c>
+      <c r="D808" t="s">
+        <v>17</v>
+      </c>
+      <c r="E808" t="s">
+        <v>24</v>
+      </c>
+      <c r="F808" t="s">
+        <v>35</v>
+      </c>
+      <c r="G808">
+        <v>5128</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A809">
+        <v>2025</v>
+      </c>
+      <c r="B809" t="s">
+        <v>54</v>
+      </c>
+      <c r="C809">
+        <v>34</v>
+      </c>
+      <c r="D809" t="s">
+        <v>18</v>
+      </c>
+      <c r="E809" t="s">
+        <v>24</v>
+      </c>
+      <c r="F809" t="s">
+        <v>36</v>
+      </c>
+      <c r="G809">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A810">
+        <v>2025</v>
+      </c>
+      <c r="B810" t="s">
+        <v>54</v>
+      </c>
+      <c r="C810">
+        <v>34</v>
+      </c>
+      <c r="D810" t="s">
+        <v>19</v>
+      </c>
+      <c r="E810" t="s">
+        <v>24</v>
+      </c>
+      <c r="F810" t="s">
+        <v>37</v>
+      </c>
+      <c r="G810">
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A811">
+        <v>2025</v>
+      </c>
+      <c r="B811" t="s">
+        <v>54</v>
+      </c>
+      <c r="C811">
+        <v>34</v>
+      </c>
+      <c r="D811" t="s">
+        <v>19</v>
+      </c>
+      <c r="E811" t="s">
+        <v>24</v>
+      </c>
+      <c r="F811" t="s">
+        <v>38</v>
+      </c>
+      <c r="G811">
+        <v>5564</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A812">
+        <v>2025</v>
+      </c>
+      <c r="B812" t="s">
+        <v>54</v>
+      </c>
+      <c r="C812">
+        <v>34</v>
+      </c>
+      <c r="D812" t="s">
+        <v>19</v>
+      </c>
+      <c r="E812" t="s">
+        <v>24</v>
+      </c>
+      <c r="F812" t="s">
+        <v>39</v>
+      </c>
+      <c r="G812">
+        <v>7440</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <v>2025</v>
+      </c>
+      <c r="B813" t="s">
+        <v>54</v>
+      </c>
+      <c r="C813">
+        <v>34</v>
+      </c>
+      <c r="D813" t="s">
+        <v>19</v>
+      </c>
+      <c r="E813" t="s">
+        <v>24</v>
+      </c>
+      <c r="F813" t="s">
+        <v>40</v>
+      </c>
+      <c r="G813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <v>2025</v>
+      </c>
+      <c r="B814" t="s">
+        <v>54</v>
+      </c>
+      <c r="C814">
+        <v>34</v>
+      </c>
+      <c r="D814" t="s">
+        <v>20</v>
+      </c>
+      <c r="E814" t="s">
+        <v>24</v>
+      </c>
+      <c r="F814" t="s">
+        <v>41</v>
+      </c>
+      <c r="G814">
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <v>2025</v>
+      </c>
+      <c r="B815" t="s">
+        <v>54</v>
+      </c>
+      <c r="C815">
+        <v>34</v>
+      </c>
+      <c r="D815" t="s">
+        <v>20</v>
+      </c>
+      <c r="E815" t="s">
+        <v>24</v>
+      </c>
+      <c r="F815" t="s">
+        <v>42</v>
+      </c>
+      <c r="G815">
+        <v>6343</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <v>2025</v>
+      </c>
+      <c r="B816" t="s">
+        <v>54</v>
+      </c>
+      <c r="C816">
+        <v>34</v>
+      </c>
+      <c r="D816" t="s">
+        <v>21</v>
+      </c>
+      <c r="E816" t="s">
+        <v>24</v>
+      </c>
+      <c r="F816" t="s">
+        <v>43</v>
+      </c>
+      <c r="G816">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <v>2025</v>
+      </c>
+      <c r="B817" t="s">
+        <v>54</v>
+      </c>
+      <c r="C817">
+        <v>34</v>
+      </c>
+      <c r="D817" t="s">
+        <v>21</v>
+      </c>
+      <c r="E817" t="s">
+        <v>24</v>
+      </c>
+      <c r="F817" t="s">
+        <v>44</v>
+      </c>
+      <c r="G817">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <v>2025</v>
+      </c>
+      <c r="B818" t="s">
+        <v>54</v>
+      </c>
+      <c r="C818">
+        <v>34</v>
+      </c>
+      <c r="D818" t="s">
+        <v>21</v>
+      </c>
+      <c r="E818" t="s">
+        <v>24</v>
+      </c>
+      <c r="F818" t="s">
+        <v>45</v>
+      </c>
+      <c r="G818">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <v>2025</v>
+      </c>
+      <c r="B819" t="s">
+        <v>54</v>
+      </c>
+      <c r="C819">
+        <v>34</v>
+      </c>
+      <c r="D819" t="s">
+        <v>21</v>
+      </c>
+      <c r="E819" t="s">
+        <v>24</v>
+      </c>
+      <c r="F819" t="s">
+        <v>46</v>
+      </c>
+      <c r="G819">
+        <v>19064</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <v>2025</v>
+      </c>
+      <c r="B820" t="s">
+        <v>54</v>
+      </c>
+      <c r="C820">
+        <v>34</v>
+      </c>
+      <c r="D820" t="s">
+        <v>22</v>
+      </c>
+      <c r="E820" t="s">
+        <v>22</v>
+      </c>
+      <c r="F820" t="s">
+        <v>47</v>
+      </c>
+      <c r="G820" s="3">
+        <v>106168</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <v>2025</v>
+      </c>
+      <c r="B821" t="s">
+        <v>54</v>
+      </c>
+      <c r="C821">
+        <v>34</v>
+      </c>
+      <c r="D821" t="s">
+        <v>23</v>
+      </c>
+      <c r="E821" t="s">
+        <v>24</v>
+      </c>
+      <c r="F821" t="s">
+        <v>48</v>
+      </c>
+      <c r="G821">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <v>2025</v>
+      </c>
+      <c r="B822" t="s">
+        <v>54</v>
+      </c>
+      <c r="C822">
+        <v>34</v>
+      </c>
+      <c r="D822" t="s">
+        <v>23</v>
+      </c>
+      <c r="E822" t="s">
+        <v>24</v>
+      </c>
+      <c r="F822" t="s">
+        <v>49</v>
+      </c>
+      <c r="G822">
+        <v>9629</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <v>2025</v>
+      </c>
+      <c r="B823" t="s">
+        <v>54</v>
+      </c>
+      <c r="C823">
+        <v>34</v>
+      </c>
+      <c r="D823" t="s">
+        <v>23</v>
+      </c>
+      <c r="E823" t="s">
+        <v>24</v>
+      </c>
+      <c r="F823" t="s">
+        <v>50</v>
+      </c>
+      <c r="G823">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <v>2025</v>
+      </c>
+      <c r="B824" t="s">
+        <v>54</v>
+      </c>
+      <c r="C824">
+        <v>34</v>
+      </c>
+      <c r="D824" t="s">
+        <v>23</v>
+      </c>
+      <c r="E824" t="s">
+        <v>24</v>
+      </c>
+      <c r="F824" t="s">
+        <v>51</v>
+      </c>
+      <c r="G824">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <v>2025</v>
+      </c>
+      <c r="B825" t="s">
+        <v>54</v>
+      </c>
+      <c r="C825">
+        <v>34</v>
+      </c>
+      <c r="D825" t="s">
+        <v>23</v>
+      </c>
+      <c r="E825" t="s">
+        <v>24</v>
+      </c>
+      <c r="F825" t="s">
+        <v>52</v>
+      </c>
+      <c r="G825">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <v>2025</v>
+      </c>
+      <c r="B826" t="s">
+        <v>54</v>
+      </c>
+      <c r="C826">
+        <v>34</v>
+      </c>
+      <c r="D826" t="s">
+        <v>23</v>
+      </c>
+      <c r="E826" t="s">
+        <v>24</v>
+      </c>
+      <c r="F826" t="s">
+        <v>53</v>
+      </c>
+      <c r="G826">
+        <v>6643</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A827">
+        <v>2025</v>
+      </c>
+      <c r="B827" t="s">
+        <v>54</v>
+      </c>
+      <c r="C827">
+        <v>32</v>
+      </c>
+      <c r="D827" t="s">
+        <v>13</v>
+      </c>
+      <c r="E827" t="s">
+        <v>24</v>
+      </c>
+      <c r="F827" t="s">
+        <v>25</v>
+      </c>
+      <c r="G827">
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A828">
+        <v>2025</v>
+      </c>
+      <c r="B828" t="s">
+        <v>54</v>
+      </c>
+      <c r="C828">
+        <v>32</v>
+      </c>
+      <c r="D828" t="s">
+        <v>13</v>
+      </c>
+      <c r="E828" t="s">
+        <v>24</v>
+      </c>
+      <c r="F828" t="s">
+        <v>26</v>
+      </c>
+      <c r="G828" s="2">
+        <v>13625</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A829">
+        <v>2025</v>
+      </c>
+      <c r="B829" t="s">
+        <v>54</v>
+      </c>
+      <c r="C829">
+        <v>32</v>
+      </c>
+      <c r="D829" t="s">
+        <v>13</v>
+      </c>
+      <c r="E829" t="s">
+        <v>24</v>
+      </c>
+      <c r="F829" t="s">
+        <v>27</v>
+      </c>
+      <c r="G829">
+        <v>7014</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A830">
+        <v>2025</v>
+      </c>
+      <c r="B830" t="s">
+        <v>54</v>
+      </c>
+      <c r="C830">
+        <v>32</v>
+      </c>
+      <c r="D830" t="s">
+        <v>14</v>
+      </c>
+      <c r="E830" t="s">
+        <v>24</v>
+      </c>
+      <c r="F830" t="s">
+        <v>28</v>
+      </c>
+      <c r="G830">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A831">
+        <v>2025</v>
+      </c>
+      <c r="B831" t="s">
+        <v>54</v>
+      </c>
+      <c r="C831">
+        <v>32</v>
+      </c>
+      <c r="D831" t="s">
+        <v>15</v>
+      </c>
+      <c r="E831" t="s">
+        <v>24</v>
+      </c>
+      <c r="F831" t="s">
+        <v>29</v>
+      </c>
+      <c r="G831">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A832">
+        <v>2025</v>
+      </c>
+      <c r="B832" t="s">
+        <v>54</v>
+      </c>
+      <c r="C832">
+        <v>32</v>
+      </c>
+      <c r="D832" t="s">
+        <v>16</v>
+      </c>
+      <c r="E832" t="s">
+        <v>24</v>
+      </c>
+      <c r="F832" t="s">
+        <v>30</v>
+      </c>
+      <c r="G832">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A833">
+        <v>2025</v>
+      </c>
+      <c r="B833" t="s">
+        <v>54</v>
+      </c>
+      <c r="C833">
+        <v>32</v>
+      </c>
+      <c r="D833" t="s">
+        <v>16</v>
+      </c>
+      <c r="E833" t="s">
+        <v>24</v>
+      </c>
+      <c r="F833" t="s">
+        <v>31</v>
+      </c>
+      <c r="G833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A834">
+        <v>2025</v>
+      </c>
+      <c r="B834" t="s">
+        <v>54</v>
+      </c>
+      <c r="C834">
+        <v>32</v>
+      </c>
+      <c r="D834" t="s">
+        <v>17</v>
+      </c>
+      <c r="E834" t="s">
+        <v>24</v>
+      </c>
+      <c r="F834" t="s">
+        <v>32</v>
+      </c>
+      <c r="G834">
+        <v>13395</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A835">
+        <v>2025</v>
+      </c>
+      <c r="B835" t="s">
+        <v>54</v>
+      </c>
+      <c r="C835">
+        <v>32</v>
+      </c>
+      <c r="D835" t="s">
+        <v>17</v>
+      </c>
+      <c r="E835" t="s">
+        <v>24</v>
+      </c>
+      <c r="F835" t="s">
+        <v>33</v>
+      </c>
+      <c r="G835">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A836">
+        <v>2025</v>
+      </c>
+      <c r="B836" t="s">
+        <v>54</v>
+      </c>
+      <c r="C836">
+        <v>32</v>
+      </c>
+      <c r="D836" t="s">
+        <v>17</v>
+      </c>
+      <c r="E836" t="s">
+        <v>24</v>
+      </c>
+      <c r="F836" t="s">
+        <v>34</v>
+      </c>
+      <c r="G836">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="837" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A837">
+        <v>2025</v>
+      </c>
+      <c r="B837" t="s">
+        <v>54</v>
+      </c>
+      <c r="C837">
+        <v>32</v>
+      </c>
+      <c r="D837" t="s">
+        <v>17</v>
+      </c>
+      <c r="E837" t="s">
+        <v>24</v>
+      </c>
+      <c r="F837" t="s">
+        <v>35</v>
+      </c>
+      <c r="G837">
+        <v>5882</v>
+      </c>
+    </row>
+    <row r="838" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A838">
+        <v>2025</v>
+      </c>
+      <c r="B838" t="s">
+        <v>54</v>
+      </c>
+      <c r="C838">
+        <v>32</v>
+      </c>
+      <c r="D838" t="s">
+        <v>18</v>
+      </c>
+      <c r="E838" t="s">
+        <v>24</v>
+      </c>
+      <c r="F838" t="s">
+        <v>36</v>
+      </c>
+      <c r="G838">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="839" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A839">
+        <v>2025</v>
+      </c>
+      <c r="B839" t="s">
+        <v>54</v>
+      </c>
+      <c r="C839">
+        <v>32</v>
+      </c>
+      <c r="D839" t="s">
+        <v>19</v>
+      </c>
+      <c r="E839" t="s">
+        <v>24</v>
+      </c>
+      <c r="F839" t="s">
+        <v>37</v>
+      </c>
+      <c r="G839">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A840">
+        <v>2025</v>
+      </c>
+      <c r="B840" t="s">
+        <v>54</v>
+      </c>
+      <c r="C840">
+        <v>32</v>
+      </c>
+      <c r="D840" t="s">
+        <v>19</v>
+      </c>
+      <c r="E840" t="s">
+        <v>24</v>
+      </c>
+      <c r="F840" t="s">
+        <v>38</v>
+      </c>
+      <c r="G840">
+        <v>7510</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A841">
+        <v>2025</v>
+      </c>
+      <c r="B841" t="s">
+        <v>54</v>
+      </c>
+      <c r="C841">
+        <v>32</v>
+      </c>
+      <c r="D841" t="s">
+        <v>19</v>
+      </c>
+      <c r="E841" t="s">
+        <v>24</v>
+      </c>
+      <c r="F841" t="s">
+        <v>39</v>
+      </c>
+      <c r="G841">
+        <v>8780</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A842">
+        <v>2025</v>
+      </c>
+      <c r="B842" t="s">
+        <v>54</v>
+      </c>
+      <c r="C842">
+        <v>32</v>
+      </c>
+      <c r="D842" t="s">
+        <v>19</v>
+      </c>
+      <c r="E842" t="s">
+        <v>24</v>
+      </c>
+      <c r="F842" t="s">
+        <v>40</v>
+      </c>
+      <c r="G842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A843">
+        <v>2025</v>
+      </c>
+      <c r="B843" t="s">
+        <v>54</v>
+      </c>
+      <c r="C843">
+        <v>32</v>
+      </c>
+      <c r="D843" t="s">
+        <v>20</v>
+      </c>
+      <c r="E843" t="s">
+        <v>24</v>
+      </c>
+      <c r="F843" t="s">
+        <v>41</v>
+      </c>
+      <c r="G843">
+        <v>16793</v>
+      </c>
+    </row>
+    <row r="844" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A844">
+        <v>2025</v>
+      </c>
+      <c r="B844" t="s">
+        <v>54</v>
+      </c>
+      <c r="C844">
+        <v>32</v>
+      </c>
+      <c r="D844" t="s">
+        <v>20</v>
+      </c>
+      <c r="E844" t="s">
+        <v>24</v>
+      </c>
+      <c r="F844" t="s">
+        <v>42</v>
+      </c>
+      <c r="G844">
+        <v>7960</v>
+      </c>
+    </row>
+    <row r="845" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A845">
+        <v>2025</v>
+      </c>
+      <c r="B845" t="s">
+        <v>54</v>
+      </c>
+      <c r="C845">
+        <v>32</v>
+      </c>
+      <c r="D845" t="s">
+        <v>21</v>
+      </c>
+      <c r="E845" t="s">
+        <v>24</v>
+      </c>
+      <c r="F845" t="s">
+        <v>43</v>
+      </c>
+      <c r="G845">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A846">
+        <v>2025</v>
+      </c>
+      <c r="B846" t="s">
+        <v>54</v>
+      </c>
+      <c r="C846">
+        <v>32</v>
+      </c>
+      <c r="D846" t="s">
+        <v>21</v>
+      </c>
+      <c r="E846" t="s">
+        <v>24</v>
+      </c>
+      <c r="F846" t="s">
+        <v>44</v>
+      </c>
+      <c r="G846">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A847">
+        <v>2025</v>
+      </c>
+      <c r="B847" t="s">
+        <v>54</v>
+      </c>
+      <c r="C847">
+        <v>32</v>
+      </c>
+      <c r="D847" t="s">
+        <v>21</v>
+      </c>
+      <c r="E847" t="s">
+        <v>24</v>
+      </c>
+      <c r="F847" t="s">
+        <v>45</v>
+      </c>
+      <c r="G847">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A848">
+        <v>2025</v>
+      </c>
+      <c r="B848" t="s">
+        <v>54</v>
+      </c>
+      <c r="C848">
+        <v>32</v>
+      </c>
+      <c r="D848" t="s">
+        <v>21</v>
+      </c>
+      <c r="E848" t="s">
+        <v>24</v>
+      </c>
+      <c r="F848" t="s">
+        <v>46</v>
+      </c>
+      <c r="G848">
+        <v>20224</v>
+      </c>
+    </row>
+    <row r="849" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A849">
+        <v>2025</v>
+      </c>
+      <c r="B849" t="s">
+        <v>54</v>
+      </c>
+      <c r="C849">
+        <v>32</v>
+      </c>
+      <c r="D849" t="s">
+        <v>22</v>
+      </c>
+      <c r="E849" t="s">
+        <v>22</v>
+      </c>
+      <c r="F849" t="s">
+        <v>47</v>
+      </c>
+      <c r="G849" s="3">
+        <v>149614</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A850">
+        <v>2025</v>
+      </c>
+      <c r="B850" t="s">
+        <v>54</v>
+      </c>
+      <c r="C850">
+        <v>32</v>
+      </c>
+      <c r="D850" t="s">
+        <v>23</v>
+      </c>
+      <c r="E850" t="s">
+        <v>24</v>
+      </c>
+      <c r="F850" t="s">
+        <v>48</v>
+      </c>
+      <c r="G850">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A851">
+        <v>2025</v>
+      </c>
+      <c r="B851" t="s">
+        <v>54</v>
+      </c>
+      <c r="C851">
+        <v>32</v>
+      </c>
+      <c r="D851" t="s">
+        <v>23</v>
+      </c>
+      <c r="E851" t="s">
+        <v>24</v>
+      </c>
+      <c r="F851" t="s">
+        <v>49</v>
+      </c>
+      <c r="G851">
+        <v>4728</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A852">
+        <v>2025</v>
+      </c>
+      <c r="B852" t="s">
+        <v>54</v>
+      </c>
+      <c r="C852">
+        <v>32</v>
+      </c>
+      <c r="D852" t="s">
+        <v>23</v>
+      </c>
+      <c r="E852" t="s">
+        <v>24</v>
+      </c>
+      <c r="F852" t="s">
+        <v>50</v>
+      </c>
+      <c r="G852">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A853">
+        <v>2025</v>
+      </c>
+      <c r="B853" t="s">
+        <v>54</v>
+      </c>
+      <c r="C853">
+        <v>32</v>
+      </c>
+      <c r="D853" t="s">
+        <v>23</v>
+      </c>
+      <c r="E853" t="s">
+        <v>24</v>
+      </c>
+      <c r="F853" t="s">
+        <v>51</v>
+      </c>
+      <c r="G853">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A854">
+        <v>2025</v>
+      </c>
+      <c r="B854" t="s">
+        <v>54</v>
+      </c>
+      <c r="C854">
+        <v>32</v>
+      </c>
+      <c r="D854" t="s">
+        <v>23</v>
+      </c>
+      <c r="E854" t="s">
+        <v>24</v>
+      </c>
+      <c r="F854" t="s">
+        <v>52</v>
+      </c>
+      <c r="G854">
+        <v>4875</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A855">
+        <v>2025</v>
+      </c>
+      <c r="B855" t="s">
+        <v>54</v>
+      </c>
+      <c r="C855">
+        <v>32</v>
+      </c>
+      <c r="D855" t="s">
+        <v>23</v>
+      </c>
+      <c r="E855" t="s">
+        <v>24</v>
+      </c>
+      <c r="F855" t="s">
+        <v>53</v>
+      </c>
+      <c r="G855">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A856">
+        <v>2025</v>
+      </c>
+      <c r="B856" t="s">
+        <v>55</v>
+      </c>
+      <c r="C856">
+        <v>28</v>
+      </c>
+      <c r="D856" t="s">
+        <v>13</v>
+      </c>
+      <c r="E856" t="s">
+        <v>24</v>
+      </c>
+      <c r="F856" t="s">
+        <v>25</v>
+      </c>
+      <c r="G856">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A857">
+        <v>2025</v>
+      </c>
+      <c r="B857" t="s">
+        <v>55</v>
+      </c>
+      <c r="C857">
+        <v>28</v>
+      </c>
+      <c r="D857" t="s">
+        <v>13</v>
+      </c>
+      <c r="E857" t="s">
+        <v>24</v>
+      </c>
+      <c r="F857" t="s">
+        <v>26</v>
+      </c>
+      <c r="G857" s="2">
+        <v>12659</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A858">
+        <v>2025</v>
+      </c>
+      <c r="B858" t="s">
+        <v>55</v>
+      </c>
+      <c r="C858">
+        <v>28</v>
+      </c>
+      <c r="D858" t="s">
+        <v>13</v>
+      </c>
+      <c r="E858" t="s">
+        <v>24</v>
+      </c>
+      <c r="F858" t="s">
+        <v>27</v>
+      </c>
+      <c r="G858">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A859">
+        <v>2025</v>
+      </c>
+      <c r="B859" t="s">
+        <v>55</v>
+      </c>
+      <c r="C859">
+        <v>28</v>
+      </c>
+      <c r="D859" t="s">
+        <v>14</v>
+      </c>
+      <c r="E859" t="s">
+        <v>24</v>
+      </c>
+      <c r="F859" t="s">
+        <v>28</v>
+      </c>
+      <c r="G859">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A860">
+        <v>2025</v>
+      </c>
+      <c r="B860" t="s">
+        <v>55</v>
+      </c>
+      <c r="C860">
+        <v>28</v>
+      </c>
+      <c r="D860" t="s">
+        <v>15</v>
+      </c>
+      <c r="E860" t="s">
+        <v>24</v>
+      </c>
+      <c r="F860" t="s">
+        <v>29</v>
+      </c>
+      <c r="G860">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A861">
+        <v>2025</v>
+      </c>
+      <c r="B861" t="s">
+        <v>55</v>
+      </c>
+      <c r="C861">
+        <v>28</v>
+      </c>
+      <c r="D861" t="s">
+        <v>16</v>
+      </c>
+      <c r="E861" t="s">
+        <v>24</v>
+      </c>
+      <c r="F861" t="s">
+        <v>30</v>
+      </c>
+      <c r="G861">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A862">
+        <v>2025</v>
+      </c>
+      <c r="B862" t="s">
+        <v>55</v>
+      </c>
+      <c r="C862">
+        <v>28</v>
+      </c>
+      <c r="D862" t="s">
+        <v>16</v>
+      </c>
+      <c r="E862" t="s">
+        <v>24</v>
+      </c>
+      <c r="F862" t="s">
+        <v>31</v>
+      </c>
+      <c r="G862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A863">
+        <v>2025</v>
+      </c>
+      <c r="B863" t="s">
+        <v>55</v>
+      </c>
+      <c r="C863">
+        <v>28</v>
+      </c>
+      <c r="D863" t="s">
+        <v>17</v>
+      </c>
+      <c r="E863" t="s">
+        <v>24</v>
+      </c>
+      <c r="F863" t="s">
+        <v>32</v>
+      </c>
+      <c r="G863">
+        <v>20600</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A864">
+        <v>2025</v>
+      </c>
+      <c r="B864" t="s">
+        <v>55</v>
+      </c>
+      <c r="C864">
+        <v>28</v>
+      </c>
+      <c r="D864" t="s">
+        <v>17</v>
+      </c>
+      <c r="E864" t="s">
+        <v>24</v>
+      </c>
+      <c r="F864" t="s">
+        <v>33</v>
+      </c>
+      <c r="G864">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A865">
+        <v>2025</v>
+      </c>
+      <c r="B865" t="s">
+        <v>55</v>
+      </c>
+      <c r="C865">
+        <v>28</v>
+      </c>
+      <c r="D865" t="s">
+        <v>17</v>
+      </c>
+      <c r="E865" t="s">
+        <v>24</v>
+      </c>
+      <c r="F865" t="s">
+        <v>34</v>
+      </c>
+      <c r="G865">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A866">
+        <v>2025</v>
+      </c>
+      <c r="B866" t="s">
+        <v>55</v>
+      </c>
+      <c r="C866">
+        <v>28</v>
+      </c>
+      <c r="D866" t="s">
+        <v>17</v>
+      </c>
+      <c r="E866" t="s">
+        <v>24</v>
+      </c>
+      <c r="F866" t="s">
+        <v>35</v>
+      </c>
+      <c r="G866">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A867">
+        <v>2025</v>
+      </c>
+      <c r="B867" t="s">
+        <v>55</v>
+      </c>
+      <c r="C867">
+        <v>28</v>
+      </c>
+      <c r="D867" t="s">
+        <v>18</v>
+      </c>
+      <c r="E867" t="s">
+        <v>24</v>
+      </c>
+      <c r="F867" t="s">
+        <v>36</v>
+      </c>
+      <c r="G867">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A868">
+        <v>2025</v>
+      </c>
+      <c r="B868" t="s">
+        <v>55</v>
+      </c>
+      <c r="C868">
+        <v>28</v>
+      </c>
+      <c r="D868" t="s">
+        <v>19</v>
+      </c>
+      <c r="E868" t="s">
+        <v>24</v>
+      </c>
+      <c r="F868" t="s">
+        <v>37</v>
+      </c>
+      <c r="G868">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A869">
+        <v>2025</v>
+      </c>
+      <c r="B869" t="s">
+        <v>55</v>
+      </c>
+      <c r="C869">
+        <v>28</v>
+      </c>
+      <c r="D869" t="s">
+        <v>19</v>
+      </c>
+      <c r="E869" t="s">
+        <v>24</v>
+      </c>
+      <c r="F869" t="s">
+        <v>38</v>
+      </c>
+      <c r="G869">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A870">
+        <v>2025</v>
+      </c>
+      <c r="B870" t="s">
+        <v>55</v>
+      </c>
+      <c r="C870">
+        <v>28</v>
+      </c>
+      <c r="D870" t="s">
+        <v>19</v>
+      </c>
+      <c r="E870" t="s">
+        <v>24</v>
+      </c>
+      <c r="F870" t="s">
+        <v>39</v>
+      </c>
+      <c r="G870">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A871">
+        <v>2025</v>
+      </c>
+      <c r="B871" t="s">
+        <v>55</v>
+      </c>
+      <c r="C871">
+        <v>28</v>
+      </c>
+      <c r="D871" t="s">
+        <v>19</v>
+      </c>
+      <c r="E871" t="s">
+        <v>24</v>
+      </c>
+      <c r="F871" t="s">
+        <v>40</v>
+      </c>
+      <c r="G871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A872">
+        <v>2025</v>
+      </c>
+      <c r="B872" t="s">
+        <v>55</v>
+      </c>
+      <c r="C872">
+        <v>28</v>
+      </c>
+      <c r="D872" t="s">
+        <v>20</v>
+      </c>
+      <c r="E872" t="s">
+        <v>24</v>
+      </c>
+      <c r="F872" t="s">
+        <v>41</v>
+      </c>
+      <c r="G872">
+        <v>28346</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A873">
+        <v>2025</v>
+      </c>
+      <c r="B873" t="s">
+        <v>55</v>
+      </c>
+      <c r="C873">
+        <v>28</v>
+      </c>
+      <c r="D873" t="s">
+        <v>20</v>
+      </c>
+      <c r="E873" t="s">
+        <v>24</v>
+      </c>
+      <c r="F873" t="s">
+        <v>42</v>
+      </c>
+      <c r="G873">
+        <v>12025</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A874">
+        <v>2025</v>
+      </c>
+      <c r="B874" t="s">
+        <v>55</v>
+      </c>
+      <c r="C874">
+        <v>28</v>
+      </c>
+      <c r="D874" t="s">
+        <v>21</v>
+      </c>
+      <c r="E874" t="s">
+        <v>24</v>
+      </c>
+      <c r="F874" t="s">
+        <v>43</v>
+      </c>
+      <c r="G874">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A875">
+        <v>2025</v>
+      </c>
+      <c r="B875" t="s">
+        <v>55</v>
+      </c>
+      <c r="C875">
+        <v>28</v>
+      </c>
+      <c r="D875" t="s">
+        <v>21</v>
+      </c>
+      <c r="E875" t="s">
+        <v>24</v>
+      </c>
+      <c r="F875" t="s">
+        <v>44</v>
+      </c>
+      <c r="G875">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A876">
+        <v>2025</v>
+      </c>
+      <c r="B876" t="s">
+        <v>55</v>
+      </c>
+      <c r="C876">
+        <v>28</v>
+      </c>
+      <c r="D876" t="s">
+        <v>21</v>
+      </c>
+      <c r="E876" t="s">
+        <v>24</v>
+      </c>
+      <c r="F876" t="s">
+        <v>45</v>
+      </c>
+      <c r="G876">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A877">
+        <v>2025</v>
+      </c>
+      <c r="B877" t="s">
+        <v>55</v>
+      </c>
+      <c r="C877">
+        <v>28</v>
+      </c>
+      <c r="D877" t="s">
+        <v>21</v>
+      </c>
+      <c r="E877" t="s">
+        <v>24</v>
+      </c>
+      <c r="F877" t="s">
+        <v>46</v>
+      </c>
+      <c r="G877">
+        <v>18343</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A878">
+        <v>2025</v>
+      </c>
+      <c r="B878" t="s">
+        <v>55</v>
+      </c>
+      <c r="C878">
+        <v>28</v>
+      </c>
+      <c r="D878" t="s">
+        <v>22</v>
+      </c>
+      <c r="E878" t="s">
+        <v>22</v>
+      </c>
+      <c r="F878" t="s">
+        <v>47</v>
+      </c>
+      <c r="G878" s="3">
+        <v>161183</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A879">
+        <v>2025</v>
+      </c>
+      <c r="B879" t="s">
+        <v>55</v>
+      </c>
+      <c r="C879">
+        <v>28</v>
+      </c>
+      <c r="D879" t="s">
+        <v>23</v>
+      </c>
+      <c r="E879" t="s">
+        <v>24</v>
+      </c>
+      <c r="F879" t="s">
+        <v>48</v>
+      </c>
+      <c r="G879">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <v>2025</v>
+      </c>
+      <c r="B880" t="s">
+        <v>55</v>
+      </c>
+      <c r="C880">
+        <v>28</v>
+      </c>
+      <c r="D880" t="s">
+        <v>23</v>
+      </c>
+      <c r="E880" t="s">
+        <v>24</v>
+      </c>
+      <c r="F880" t="s">
+        <v>49</v>
+      </c>
+      <c r="G880">
+        <v>13287</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A881">
+        <v>2025</v>
+      </c>
+      <c r="B881" t="s">
+        <v>55</v>
+      </c>
+      <c r="C881">
+        <v>28</v>
+      </c>
+      <c r="D881" t="s">
+        <v>23</v>
+      </c>
+      <c r="E881" t="s">
+        <v>24</v>
+      </c>
+      <c r="F881" t="s">
+        <v>50</v>
+      </c>
+      <c r="G881">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A882">
+        <v>2025</v>
+      </c>
+      <c r="B882" t="s">
+        <v>55</v>
+      </c>
+      <c r="C882">
+        <v>28</v>
+      </c>
+      <c r="D882" t="s">
+        <v>23</v>
+      </c>
+      <c r="E882" t="s">
+        <v>24</v>
+      </c>
+      <c r="F882" t="s">
+        <v>51</v>
+      </c>
+      <c r="G882">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A883">
+        <v>2025</v>
+      </c>
+      <c r="B883" t="s">
+        <v>55</v>
+      </c>
+      <c r="C883">
+        <v>28</v>
+      </c>
+      <c r="D883" t="s">
+        <v>23</v>
+      </c>
+      <c r="E883" t="s">
+        <v>24</v>
+      </c>
+      <c r="F883" t="s">
+        <v>52</v>
+      </c>
+      <c r="G883">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A884">
+        <v>2025</v>
+      </c>
+      <c r="B884" t="s">
+        <v>55</v>
+      </c>
+      <c r="C884">
+        <v>28</v>
+      </c>
+      <c r="D884" t="s">
+        <v>23</v>
+      </c>
+      <c r="E884" t="s">
+        <v>24</v>
+      </c>
+      <c r="F884" t="s">
+        <v>53</v>
+      </c>
+      <c r="G884">
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A885">
+        <v>2025</v>
+      </c>
+      <c r="B885" t="s">
+        <v>55</v>
+      </c>
+      <c r="C885">
+        <v>29</v>
+      </c>
+      <c r="D885" t="s">
+        <v>13</v>
+      </c>
+      <c r="E885" t="s">
+        <v>24</v>
+      </c>
+      <c r="F885" t="s">
+        <v>25</v>
+      </c>
+      <c r="G885">
+        <v>7242</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A886">
+        <v>2025</v>
+      </c>
+      <c r="B886" t="s">
+        <v>55</v>
+      </c>
+      <c r="C886">
+        <v>29</v>
+      </c>
+      <c r="D886" t="s">
+        <v>13</v>
+      </c>
+      <c r="E886" t="s">
+        <v>24</v>
+      </c>
+      <c r="F886" t="s">
+        <v>26</v>
+      </c>
+      <c r="G886" s="2">
+        <v>13075</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A887">
+        <v>2025</v>
+      </c>
+      <c r="B887" t="s">
+        <v>55</v>
+      </c>
+      <c r="C887">
+        <v>29</v>
+      </c>
+      <c r="D887" t="s">
+        <v>13</v>
+      </c>
+      <c r="E887" t="s">
+        <v>24</v>
+      </c>
+      <c r="F887" t="s">
+        <v>27</v>
+      </c>
+      <c r="G887">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A888">
+        <v>2025</v>
+      </c>
+      <c r="B888" t="s">
+        <v>55</v>
+      </c>
+      <c r="C888">
+        <v>29</v>
+      </c>
+      <c r="D888" t="s">
+        <v>14</v>
+      </c>
+      <c r="E888" t="s">
+        <v>24</v>
+      </c>
+      <c r="F888" t="s">
+        <v>28</v>
+      </c>
+      <c r="G888">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A889">
+        <v>2025</v>
+      </c>
+      <c r="B889" t="s">
+        <v>55</v>
+      </c>
+      <c r="C889">
+        <v>29</v>
+      </c>
+      <c r="D889" t="s">
+        <v>15</v>
+      </c>
+      <c r="E889" t="s">
+        <v>24</v>
+      </c>
+      <c r="F889" t="s">
+        <v>29</v>
+      </c>
+      <c r="G889">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A890">
+        <v>2025</v>
+      </c>
+      <c r="B890" t="s">
+        <v>55</v>
+      </c>
+      <c r="C890">
+        <v>29</v>
+      </c>
+      <c r="D890" t="s">
+        <v>16</v>
+      </c>
+      <c r="E890" t="s">
+        <v>24</v>
+      </c>
+      <c r="F890" t="s">
+        <v>30</v>
+      </c>
+      <c r="G890">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A891">
+        <v>2025</v>
+      </c>
+      <c r="B891" t="s">
+        <v>55</v>
+      </c>
+      <c r="C891">
+        <v>29</v>
+      </c>
+      <c r="D891" t="s">
+        <v>16</v>
+      </c>
+      <c r="E891" t="s">
+        <v>24</v>
+      </c>
+      <c r="F891" t="s">
+        <v>31</v>
+      </c>
+      <c r="G891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A892">
+        <v>2025</v>
+      </c>
+      <c r="B892" t="s">
+        <v>55</v>
+      </c>
+      <c r="C892">
+        <v>29</v>
+      </c>
+      <c r="D892" t="s">
+        <v>17</v>
+      </c>
+      <c r="E892" t="s">
+        <v>24</v>
+      </c>
+      <c r="F892" t="s">
+        <v>32</v>
+      </c>
+      <c r="G892">
+        <v>15969</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A893">
+        <v>2025</v>
+      </c>
+      <c r="B893" t="s">
+        <v>55</v>
+      </c>
+      <c r="C893">
+        <v>29</v>
+      </c>
+      <c r="D893" t="s">
+        <v>17</v>
+      </c>
+      <c r="E893" t="s">
+        <v>24</v>
+      </c>
+      <c r="F893" t="s">
+        <v>33</v>
+      </c>
+      <c r="G893">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A894">
+        <v>2025</v>
+      </c>
+      <c r="B894" t="s">
+        <v>55</v>
+      </c>
+      <c r="C894">
+        <v>29</v>
+      </c>
+      <c r="D894" t="s">
+        <v>17</v>
+      </c>
+      <c r="E894" t="s">
+        <v>24</v>
+      </c>
+      <c r="F894" t="s">
+        <v>34</v>
+      </c>
+      <c r="G894">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A895">
+        <v>2025</v>
+      </c>
+      <c r="B895" t="s">
+        <v>55</v>
+      </c>
+      <c r="C895">
+        <v>29</v>
+      </c>
+      <c r="D895" t="s">
+        <v>17</v>
+      </c>
+      <c r="E895" t="s">
+        <v>24</v>
+      </c>
+      <c r="F895" t="s">
+        <v>35</v>
+      </c>
+      <c r="G895">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A896">
+        <v>2025</v>
+      </c>
+      <c r="B896" t="s">
+        <v>55</v>
+      </c>
+      <c r="C896">
+        <v>29</v>
+      </c>
+      <c r="D896" t="s">
+        <v>18</v>
+      </c>
+      <c r="E896" t="s">
+        <v>24</v>
+      </c>
+      <c r="F896" t="s">
+        <v>36</v>
+      </c>
+      <c r="G896">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A897">
+        <v>2025</v>
+      </c>
+      <c r="B897" t="s">
+        <v>55</v>
+      </c>
+      <c r="C897">
+        <v>29</v>
+      </c>
+      <c r="D897" t="s">
+        <v>19</v>
+      </c>
+      <c r="E897" t="s">
+        <v>24</v>
+      </c>
+      <c r="F897" t="s">
+        <v>37</v>
+      </c>
+      <c r="G897">
+        <v>7520</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A898">
+        <v>2025</v>
+      </c>
+      <c r="B898" t="s">
+        <v>55</v>
+      </c>
+      <c r="C898">
+        <v>29</v>
+      </c>
+      <c r="D898" t="s">
+        <v>19</v>
+      </c>
+      <c r="E898" t="s">
+        <v>24</v>
+      </c>
+      <c r="F898" t="s">
+        <v>38</v>
+      </c>
+      <c r="G898">
+        <v>11290</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A899">
+        <v>2025</v>
+      </c>
+      <c r="B899" t="s">
+        <v>55</v>
+      </c>
+      <c r="C899">
+        <v>29</v>
+      </c>
+      <c r="D899" t="s">
+        <v>19</v>
+      </c>
+      <c r="E899" t="s">
+        <v>24</v>
+      </c>
+      <c r="F899" t="s">
+        <v>39</v>
+      </c>
+      <c r="G899">
+        <v>10560</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A900">
+        <v>2025</v>
+      </c>
+      <c r="B900" t="s">
+        <v>55</v>
+      </c>
+      <c r="C900">
+        <v>29</v>
+      </c>
+      <c r="D900" t="s">
+        <v>19</v>
+      </c>
+      <c r="E900" t="s">
+        <v>24</v>
+      </c>
+      <c r="F900" t="s">
+        <v>40</v>
+      </c>
+      <c r="G900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A901">
+        <v>2025</v>
+      </c>
+      <c r="B901" t="s">
+        <v>55</v>
+      </c>
+      <c r="C901">
+        <v>29</v>
+      </c>
+      <c r="D901" t="s">
+        <v>20</v>
+      </c>
+      <c r="E901" t="s">
+        <v>24</v>
+      </c>
+      <c r="F901" t="s">
+        <v>41</v>
+      </c>
+      <c r="G901">
+        <v>16795</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A902">
+        <v>2025</v>
+      </c>
+      <c r="B902" t="s">
+        <v>55</v>
+      </c>
+      <c r="C902">
+        <v>29</v>
+      </c>
+      <c r="D902" t="s">
+        <v>20</v>
+      </c>
+      <c r="E902" t="s">
+        <v>24</v>
+      </c>
+      <c r="F902" t="s">
+        <v>42</v>
+      </c>
+      <c r="G902">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A903">
+        <v>2025</v>
+      </c>
+      <c r="B903" t="s">
+        <v>55</v>
+      </c>
+      <c r="C903">
+        <v>29</v>
+      </c>
+      <c r="D903" t="s">
+        <v>21</v>
+      </c>
+      <c r="E903" t="s">
+        <v>24</v>
+      </c>
+      <c r="F903" t="s">
+        <v>43</v>
+      </c>
+      <c r="G903">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A904">
+        <v>2025</v>
+      </c>
+      <c r="B904" t="s">
+        <v>55</v>
+      </c>
+      <c r="C904">
+        <v>29</v>
+      </c>
+      <c r="D904" t="s">
+        <v>21</v>
+      </c>
+      <c r="E904" t="s">
+        <v>24</v>
+      </c>
+      <c r="F904" t="s">
+        <v>44</v>
+      </c>
+      <c r="G904">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A905">
+        <v>2025</v>
+      </c>
+      <c r="B905" t="s">
+        <v>55</v>
+      </c>
+      <c r="C905">
+        <v>29</v>
+      </c>
+      <c r="D905" t="s">
+        <v>21</v>
+      </c>
+      <c r="E905" t="s">
+        <v>24</v>
+      </c>
+      <c r="F905" t="s">
+        <v>45</v>
+      </c>
+      <c r="G905">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A906">
+        <v>2025</v>
+      </c>
+      <c r="B906" t="s">
+        <v>55</v>
+      </c>
+      <c r="C906">
+        <v>29</v>
+      </c>
+      <c r="D906" t="s">
+        <v>21</v>
+      </c>
+      <c r="E906" t="s">
+        <v>24</v>
+      </c>
+      <c r="F906" t="s">
+        <v>46</v>
+      </c>
+      <c r="G906">
+        <v>22114</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A907">
+        <v>2025</v>
+      </c>
+      <c r="B907" t="s">
+        <v>55</v>
+      </c>
+      <c r="C907">
+        <v>29</v>
+      </c>
+      <c r="D907" t="s">
+        <v>22</v>
+      </c>
+      <c r="E907" t="s">
+        <v>22</v>
+      </c>
+      <c r="F907" t="s">
+        <v>47</v>
+      </c>
+      <c r="G907" s="3">
+        <v>121545</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A908">
+        <v>2025</v>
+      </c>
+      <c r="B908" t="s">
+        <v>55</v>
+      </c>
+      <c r="C908">
+        <v>29</v>
+      </c>
+      <c r="D908" t="s">
+        <v>23</v>
+      </c>
+      <c r="E908" t="s">
+        <v>24</v>
+      </c>
+      <c r="F908" t="s">
+        <v>48</v>
+      </c>
+      <c r="G908">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A909">
+        <v>2025</v>
+      </c>
+      <c r="B909" t="s">
+        <v>55</v>
+      </c>
+      <c r="C909">
+        <v>29</v>
+      </c>
+      <c r="D909" t="s">
+        <v>23</v>
+      </c>
+      <c r="E909" t="s">
+        <v>24</v>
+      </c>
+      <c r="F909" t="s">
+        <v>49</v>
+      </c>
+      <c r="G909">
+        <v>10341</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A910">
+        <v>2025</v>
+      </c>
+      <c r="B910" t="s">
+        <v>55</v>
+      </c>
+      <c r="C910">
+        <v>29</v>
+      </c>
+      <c r="D910" t="s">
+        <v>23</v>
+      </c>
+      <c r="E910" t="s">
+        <v>24</v>
+      </c>
+      <c r="F910" t="s">
+        <v>50</v>
+      </c>
+      <c r="G910">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A911">
+        <v>2025</v>
+      </c>
+      <c r="B911" t="s">
+        <v>55</v>
+      </c>
+      <c r="C911">
+        <v>29</v>
+      </c>
+      <c r="D911" t="s">
+        <v>23</v>
+      </c>
+      <c r="E911" t="s">
+        <v>24</v>
+      </c>
+      <c r="F911" t="s">
+        <v>51</v>
+      </c>
+      <c r="G911">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A912">
+        <v>2025</v>
+      </c>
+      <c r="B912" t="s">
+        <v>55</v>
+      </c>
+      <c r="C912">
+        <v>29</v>
+      </c>
+      <c r="D912" t="s">
+        <v>23</v>
+      </c>
+      <c r="E912" t="s">
+        <v>24</v>
+      </c>
+      <c r="F912" t="s">
+        <v>52</v>
+      </c>
+      <c r="G912">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <v>2025</v>
+      </c>
+      <c r="B913" t="s">
+        <v>55</v>
+      </c>
+      <c r="C913">
+        <v>29</v>
+      </c>
+      <c r="D913" t="s">
+        <v>23</v>
+      </c>
+      <c r="E913" t="s">
+        <v>24</v>
+      </c>
+      <c r="F913" t="s">
+        <v>53</v>
+      </c>
+      <c r="G913">
+        <v>10650</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A914">
+        <v>2025</v>
+      </c>
+      <c r="B914" t="s">
+        <v>55</v>
+      </c>
+      <c r="C914">
+        <v>30</v>
+      </c>
+      <c r="D914" t="s">
+        <v>13</v>
+      </c>
+      <c r="E914" t="s">
+        <v>24</v>
+      </c>
+      <c r="F914" t="s">
+        <v>25</v>
+      </c>
+      <c r="G914">
+        <v>4907</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A915">
+        <v>2025</v>
+      </c>
+      <c r="B915" t="s">
+        <v>55</v>
+      </c>
+      <c r="C915">
+        <v>30</v>
+      </c>
+      <c r="D915" t="s">
+        <v>13</v>
+      </c>
+      <c r="E915" t="s">
+        <v>24</v>
+      </c>
+      <c r="F915" t="s">
+        <v>26</v>
+      </c>
+      <c r="G915" s="2">
+        <v>11178</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A916">
+        <v>2025</v>
+      </c>
+      <c r="B916" t="s">
+        <v>55</v>
+      </c>
+      <c r="C916">
+        <v>30</v>
+      </c>
+      <c r="D916" t="s">
+        <v>13</v>
+      </c>
+      <c r="E916" t="s">
+        <v>24</v>
+      </c>
+      <c r="F916" t="s">
+        <v>27</v>
+      </c>
+      <c r="G916">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A917">
+        <v>2025</v>
+      </c>
+      <c r="B917" t="s">
+        <v>55</v>
+      </c>
+      <c r="C917">
+        <v>30</v>
+      </c>
+      <c r="D917" t="s">
+        <v>14</v>
+      </c>
+      <c r="E917" t="s">
+        <v>24</v>
+      </c>
+      <c r="F917" t="s">
+        <v>28</v>
+      </c>
+      <c r="G917">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A918">
+        <v>2025</v>
+      </c>
+      <c r="B918" t="s">
+        <v>55</v>
+      </c>
+      <c r="C918">
+        <v>30</v>
+      </c>
+      <c r="D918" t="s">
+        <v>15</v>
+      </c>
+      <c r="E918" t="s">
+        <v>24</v>
+      </c>
+      <c r="F918" t="s">
+        <v>29</v>
+      </c>
+      <c r="G918">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A919">
+        <v>2025</v>
+      </c>
+      <c r="B919" t="s">
+        <v>55</v>
+      </c>
+      <c r="C919">
+        <v>30</v>
+      </c>
+      <c r="D919" t="s">
+        <v>16</v>
+      </c>
+      <c r="E919" t="s">
+        <v>24</v>
+      </c>
+      <c r="F919" t="s">
+        <v>30</v>
+      </c>
+      <c r="G919">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A920">
+        <v>2025</v>
+      </c>
+      <c r="B920" t="s">
+        <v>55</v>
+      </c>
+      <c r="C920">
+        <v>30</v>
+      </c>
+      <c r="D920" t="s">
+        <v>16</v>
+      </c>
+      <c r="E920" t="s">
+        <v>24</v>
+      </c>
+      <c r="F920" t="s">
+        <v>31</v>
+      </c>
+      <c r="G920">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A921">
+        <v>2025</v>
+      </c>
+      <c r="B921" t="s">
+        <v>55</v>
+      </c>
+      <c r="C921">
+        <v>30</v>
+      </c>
+      <c r="D921" t="s">
+        <v>17</v>
+      </c>
+      <c r="E921" t="s">
+        <v>24</v>
+      </c>
+      <c r="F921" t="s">
+        <v>32</v>
+      </c>
+      <c r="G921">
+        <v>14770</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A922">
+        <v>2025</v>
+      </c>
+      <c r="B922" t="s">
+        <v>55</v>
+      </c>
+      <c r="C922">
+        <v>30</v>
+      </c>
+      <c r="D922" t="s">
+        <v>17</v>
+      </c>
+      <c r="E922" t="s">
+        <v>24</v>
+      </c>
+      <c r="F922" t="s">
+        <v>33</v>
+      </c>
+      <c r="G922">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A923">
+        <v>2025</v>
+      </c>
+      <c r="B923" t="s">
+        <v>55</v>
+      </c>
+      <c r="C923">
+        <v>30</v>
+      </c>
+      <c r="D923" t="s">
+        <v>17</v>
+      </c>
+      <c r="E923" t="s">
+        <v>24</v>
+      </c>
+      <c r="F923" t="s">
+        <v>34</v>
+      </c>
+      <c r="G923">
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A924">
+        <v>2025</v>
+      </c>
+      <c r="B924" t="s">
+        <v>55</v>
+      </c>
+      <c r="C924">
+        <v>30</v>
+      </c>
+      <c r="D924" t="s">
+        <v>17</v>
+      </c>
+      <c r="E924" t="s">
+        <v>24</v>
+      </c>
+      <c r="F924" t="s">
+        <v>35</v>
+      </c>
+      <c r="G924">
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A925">
+        <v>2025</v>
+      </c>
+      <c r="B925" t="s">
+        <v>55</v>
+      </c>
+      <c r="C925">
+        <v>30</v>
+      </c>
+      <c r="D925" t="s">
+        <v>18</v>
+      </c>
+      <c r="E925" t="s">
+        <v>24</v>
+      </c>
+      <c r="F925" t="s">
+        <v>36</v>
+      </c>
+      <c r="G925">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A926">
+        <v>2025</v>
+      </c>
+      <c r="B926" t="s">
+        <v>55</v>
+      </c>
+      <c r="C926">
+        <v>30</v>
+      </c>
+      <c r="D926" t="s">
+        <v>19</v>
+      </c>
+      <c r="E926" t="s">
+        <v>24</v>
+      </c>
+      <c r="F926" t="s">
+        <v>37</v>
+      </c>
+      <c r="G926">
+        <v>6940</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A927">
+        <v>2025</v>
+      </c>
+      <c r="B927" t="s">
+        <v>55</v>
+      </c>
+      <c r="C927">
+        <v>30</v>
+      </c>
+      <c r="D927" t="s">
+        <v>19</v>
+      </c>
+      <c r="E927" t="s">
+        <v>24</v>
+      </c>
+      <c r="F927" t="s">
+        <v>38</v>
+      </c>
+      <c r="G927">
+        <v>10517</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A928">
+        <v>2025</v>
+      </c>
+      <c r="B928" t="s">
+        <v>55</v>
+      </c>
+      <c r="C928">
+        <v>30</v>
+      </c>
+      <c r="D928" t="s">
+        <v>19</v>
+      </c>
+      <c r="E928" t="s">
+        <v>24</v>
+      </c>
+      <c r="F928" t="s">
+        <v>39</v>
+      </c>
+      <c r="G928">
+        <v>8915</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A929">
+        <v>2025</v>
+      </c>
+      <c r="B929" t="s">
+        <v>55</v>
+      </c>
+      <c r="C929">
+        <v>30</v>
+      </c>
+      <c r="D929" t="s">
+        <v>19</v>
+      </c>
+      <c r="E929" t="s">
+        <v>24</v>
+      </c>
+      <c r="F929" t="s">
+        <v>40</v>
+      </c>
+      <c r="G929">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A930">
+        <v>2025</v>
+      </c>
+      <c r="B930" t="s">
+        <v>55</v>
+      </c>
+      <c r="C930">
+        <v>30</v>
+      </c>
+      <c r="D930" t="s">
+        <v>20</v>
+      </c>
+      <c r="E930" t="s">
+        <v>24</v>
+      </c>
+      <c r="F930" t="s">
+        <v>41</v>
+      </c>
+      <c r="G930">
+        <v>17459</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <v>2025</v>
+      </c>
+      <c r="B931" t="s">
+        <v>55</v>
+      </c>
+      <c r="C931">
+        <v>30</v>
+      </c>
+      <c r="D931" t="s">
+        <v>20</v>
+      </c>
+      <c r="E931" t="s">
+        <v>24</v>
+      </c>
+      <c r="F931" t="s">
+        <v>42</v>
+      </c>
+      <c r="G931">
+        <v>7705</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <v>2025</v>
+      </c>
+      <c r="B932" t="s">
+        <v>55</v>
+      </c>
+      <c r="C932">
+        <v>30</v>
+      </c>
+      <c r="D932" t="s">
+        <v>21</v>
+      </c>
+      <c r="E932" t="s">
+        <v>24</v>
+      </c>
+      <c r="F932" t="s">
+        <v>43</v>
+      </c>
+      <c r="G932">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <v>2025</v>
+      </c>
+      <c r="B933" t="s">
+        <v>55</v>
+      </c>
+      <c r="C933">
+        <v>30</v>
+      </c>
+      <c r="D933" t="s">
+        <v>21</v>
+      </c>
+      <c r="E933" t="s">
+        <v>24</v>
+      </c>
+      <c r="F933" t="s">
+        <v>44</v>
+      </c>
+      <c r="G933">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A934">
+        <v>2025</v>
+      </c>
+      <c r="B934" t="s">
+        <v>55</v>
+      </c>
+      <c r="C934">
+        <v>30</v>
+      </c>
+      <c r="D934" t="s">
+        <v>21</v>
+      </c>
+      <c r="E934" t="s">
+        <v>24</v>
+      </c>
+      <c r="F934" t="s">
+        <v>45</v>
+      </c>
+      <c r="G934">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A935">
+        <v>2025</v>
+      </c>
+      <c r="B935" t="s">
+        <v>55</v>
+      </c>
+      <c r="C935">
+        <v>30</v>
+      </c>
+      <c r="D935" t="s">
+        <v>21</v>
+      </c>
+      <c r="E935" t="s">
+        <v>24</v>
+      </c>
+      <c r="F935" t="s">
+        <v>46</v>
+      </c>
+      <c r="G935">
+        <v>19067</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A936">
+        <v>2025</v>
+      </c>
+      <c r="B936" t="s">
+        <v>55</v>
+      </c>
+      <c r="C936">
+        <v>30</v>
+      </c>
+      <c r="D936" t="s">
+        <v>22</v>
+      </c>
+      <c r="E936" t="s">
+        <v>22</v>
+      </c>
+      <c r="F936" t="s">
+        <v>47</v>
+      </c>
+      <c r="G936" s="3">
+        <v>127616</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A937">
+        <v>2025</v>
+      </c>
+      <c r="B937" t="s">
+        <v>55</v>
+      </c>
+      <c r="C937">
+        <v>30</v>
+      </c>
+      <c r="D937" t="s">
+        <v>23</v>
+      </c>
+      <c r="E937" t="s">
+        <v>24</v>
+      </c>
+      <c r="F937" t="s">
+        <v>48</v>
+      </c>
+      <c r="G937">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A938">
+        <v>2025</v>
+      </c>
+      <c r="B938" t="s">
+        <v>55</v>
+      </c>
+      <c r="C938">
+        <v>30</v>
+      </c>
+      <c r="D938" t="s">
+        <v>23</v>
+      </c>
+      <c r="E938" t="s">
+        <v>24</v>
+      </c>
+      <c r="F938" t="s">
+        <v>49</v>
+      </c>
+      <c r="G938">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A939">
+        <v>2025</v>
+      </c>
+      <c r="B939" t="s">
+        <v>55</v>
+      </c>
+      <c r="C939">
+        <v>30</v>
+      </c>
+      <c r="D939" t="s">
+        <v>23</v>
+      </c>
+      <c r="E939" t="s">
+        <v>24</v>
+      </c>
+      <c r="F939" t="s">
+        <v>50</v>
+      </c>
+      <c r="G939">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A940">
+        <v>2025</v>
+      </c>
+      <c r="B940" t="s">
+        <v>55</v>
+      </c>
+      <c r="C940">
+        <v>30</v>
+      </c>
+      <c r="D940" t="s">
+        <v>23</v>
+      </c>
+      <c r="E940" t="s">
+        <v>24</v>
+      </c>
+      <c r="F940" t="s">
+        <v>51</v>
+      </c>
+      <c r="G940">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A941">
+        <v>2025</v>
+      </c>
+      <c r="B941" t="s">
+        <v>55</v>
+      </c>
+      <c r="C941">
+        <v>30</v>
+      </c>
+      <c r="D941" t="s">
+        <v>23</v>
+      </c>
+      <c r="E941" t="s">
+        <v>24</v>
+      </c>
+      <c r="F941" t="s">
+        <v>52</v>
+      </c>
+      <c r="G941">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A942">
+        <v>2025</v>
+      </c>
+      <c r="B942" t="s">
+        <v>55</v>
+      </c>
+      <c r="C942">
+        <v>30</v>
+      </c>
+      <c r="D942" t="s">
+        <v>23</v>
+      </c>
+      <c r="E942" t="s">
+        <v>24</v>
+      </c>
+      <c r="F942" t="s">
+        <v>53</v>
+      </c>
+      <c r="G942">
+        <v>10156</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A943">
+        <v>2025</v>
+      </c>
+      <c r="B943" t="s">
+        <v>55</v>
+      </c>
+      <c r="C943">
+        <v>31</v>
+      </c>
+      <c r="D943" t="s">
+        <v>13</v>
+      </c>
+      <c r="E943" t="s">
+        <v>24</v>
+      </c>
+      <c r="F943" t="s">
+        <v>25</v>
+      </c>
+      <c r="G943">
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A944">
+        <v>2025</v>
+      </c>
+      <c r="B944" t="s">
+        <v>55</v>
+      </c>
+      <c r="C944">
+        <v>31</v>
+      </c>
+      <c r="D944" t="s">
+        <v>13</v>
+      </c>
+      <c r="E944" t="s">
+        <v>24</v>
+      </c>
+      <c r="F944" t="s">
+        <v>26</v>
+      </c>
+      <c r="G944" s="2">
+        <v>12492</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A945">
+        <v>2025</v>
+      </c>
+      <c r="B945" t="s">
+        <v>55</v>
+      </c>
+      <c r="C945">
+        <v>31</v>
+      </c>
+      <c r="D945" t="s">
+        <v>13</v>
+      </c>
+      <c r="E945" t="s">
+        <v>24</v>
+      </c>
+      <c r="F945" t="s">
+        <v>27</v>
+      </c>
+      <c r="G945">
+        <v>4941</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A946">
+        <v>2025</v>
+      </c>
+      <c r="B946" t="s">
+        <v>55</v>
+      </c>
+      <c r="C946">
+        <v>31</v>
+      </c>
+      <c r="D946" t="s">
+        <v>14</v>
+      </c>
+      <c r="E946" t="s">
+        <v>24</v>
+      </c>
+      <c r="F946" t="s">
+        <v>28</v>
+      </c>
+      <c r="G946">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A947">
+        <v>2025</v>
+      </c>
+      <c r="B947" t="s">
+        <v>55</v>
+      </c>
+      <c r="C947">
+        <v>31</v>
+      </c>
+      <c r="D947" t="s">
+        <v>15</v>
+      </c>
+      <c r="E947" t="s">
+        <v>24</v>
+      </c>
+      <c r="F947" t="s">
+        <v>29</v>
+      </c>
+      <c r="G947">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A948">
+        <v>2025</v>
+      </c>
+      <c r="B948" t="s">
+        <v>55</v>
+      </c>
+      <c r="C948">
+        <v>31</v>
+      </c>
+      <c r="D948" t="s">
+        <v>16</v>
+      </c>
+      <c r="E948" t="s">
+        <v>24</v>
+      </c>
+      <c r="F948" t="s">
+        <v>30</v>
+      </c>
+      <c r="G948">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="949" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A949">
+        <v>2025</v>
+      </c>
+      <c r="B949" t="s">
+        <v>55</v>
+      </c>
+      <c r="C949">
+        <v>31</v>
+      </c>
+      <c r="D949" t="s">
+        <v>16</v>
+      </c>
+      <c r="E949" t="s">
+        <v>24</v>
+      </c>
+      <c r="F949" t="s">
+        <v>31</v>
+      </c>
+      <c r="G949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A950">
+        <v>2025</v>
+      </c>
+      <c r="B950" t="s">
+        <v>55</v>
+      </c>
+      <c r="C950">
+        <v>31</v>
+      </c>
+      <c r="D950" t="s">
+        <v>17</v>
+      </c>
+      <c r="E950" t="s">
+        <v>24</v>
+      </c>
+      <c r="F950" t="s">
+        <v>32</v>
+      </c>
+      <c r="G950">
+        <v>11762</v>
+      </c>
+    </row>
+    <row r="951" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A951">
+        <v>2025</v>
+      </c>
+      <c r="B951" t="s">
+        <v>55</v>
+      </c>
+      <c r="C951">
+        <v>31</v>
+      </c>
+      <c r="D951" t="s">
+        <v>17</v>
+      </c>
+      <c r="E951" t="s">
+        <v>24</v>
+      </c>
+      <c r="F951" t="s">
+        <v>33</v>
+      </c>
+      <c r="G951">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A952">
+        <v>2025</v>
+      </c>
+      <c r="B952" t="s">
+        <v>55</v>
+      </c>
+      <c r="C952">
+        <v>31</v>
+      </c>
+      <c r="D952" t="s">
+        <v>17</v>
+      </c>
+      <c r="E952" t="s">
+        <v>24</v>
+      </c>
+      <c r="F952" t="s">
+        <v>34</v>
+      </c>
+      <c r="G952">
+        <v>6210</v>
+      </c>
+    </row>
+    <row r="953" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A953">
+        <v>2025</v>
+      </c>
+      <c r="B953" t="s">
+        <v>55</v>
+      </c>
+      <c r="C953">
+        <v>31</v>
+      </c>
+      <c r="D953" t="s">
+        <v>17</v>
+      </c>
+      <c r="E953" t="s">
+        <v>24</v>
+      </c>
+      <c r="F953" t="s">
+        <v>35</v>
+      </c>
+      <c r="G953">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="954" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A954">
+        <v>2025</v>
+      </c>
+      <c r="B954" t="s">
+        <v>55</v>
+      </c>
+      <c r="C954">
+        <v>31</v>
+      </c>
+      <c r="D954" t="s">
+        <v>18</v>
+      </c>
+      <c r="E954" t="s">
+        <v>24</v>
+      </c>
+      <c r="F954" t="s">
+        <v>36</v>
+      </c>
+      <c r="G954">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="955" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A955">
+        <v>2025</v>
+      </c>
+      <c r="B955" t="s">
+        <v>55</v>
+      </c>
+      <c r="C955">
+        <v>31</v>
+      </c>
+      <c r="D955" t="s">
+        <v>19</v>
+      </c>
+      <c r="E955" t="s">
+        <v>24</v>
+      </c>
+      <c r="F955" t="s">
+        <v>37</v>
+      </c>
+      <c r="G955">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="956" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A956">
+        <v>2025</v>
+      </c>
+      <c r="B956" t="s">
+        <v>55</v>
+      </c>
+      <c r="C956">
+        <v>31</v>
+      </c>
+      <c r="D956" t="s">
+        <v>19</v>
+      </c>
+      <c r="E956" t="s">
+        <v>24</v>
+      </c>
+      <c r="F956" t="s">
+        <v>38</v>
+      </c>
+      <c r="G956">
+        <v>9325</v>
+      </c>
+    </row>
+    <row r="957" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A957">
+        <v>2025</v>
+      </c>
+      <c r="B957" t="s">
+        <v>55</v>
+      </c>
+      <c r="C957">
+        <v>31</v>
+      </c>
+      <c r="D957" t="s">
+        <v>19</v>
+      </c>
+      <c r="E957" t="s">
+        <v>24</v>
+      </c>
+      <c r="F957" t="s">
+        <v>39</v>
+      </c>
+      <c r="G957">
+        <v>9190</v>
+      </c>
+    </row>
+    <row r="958" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A958">
+        <v>2025</v>
+      </c>
+      <c r="B958" t="s">
+        <v>55</v>
+      </c>
+      <c r="C958">
+        <v>31</v>
+      </c>
+      <c r="D958" t="s">
+        <v>19</v>
+      </c>
+      <c r="E958" t="s">
+        <v>24</v>
+      </c>
+      <c r="F958" t="s">
+        <v>40</v>
+      </c>
+      <c r="G958">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A959">
+        <v>2025</v>
+      </c>
+      <c r="B959" t="s">
+        <v>55</v>
+      </c>
+      <c r="C959">
+        <v>31</v>
+      </c>
+      <c r="D959" t="s">
+        <v>20</v>
+      </c>
+      <c r="E959" t="s">
+        <v>24</v>
+      </c>
+      <c r="F959" t="s">
+        <v>41</v>
+      </c>
+      <c r="G959">
+        <v>17058</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A960">
+        <v>2025</v>
+      </c>
+      <c r="B960" t="s">
+        <v>55</v>
+      </c>
+      <c r="C960">
+        <v>31</v>
+      </c>
+      <c r="D960" t="s">
+        <v>20</v>
+      </c>
+      <c r="E960" t="s">
+        <v>24</v>
+      </c>
+      <c r="F960" t="s">
+        <v>42</v>
+      </c>
+      <c r="G960">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A961">
+        <v>2025</v>
+      </c>
+      <c r="B961" t="s">
+        <v>55</v>
+      </c>
+      <c r="C961">
+        <v>31</v>
+      </c>
+      <c r="D961" t="s">
+        <v>21</v>
+      </c>
+      <c r="E961" t="s">
+        <v>24</v>
+      </c>
+      <c r="F961" t="s">
+        <v>43</v>
+      </c>
+      <c r="G961">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A962">
+        <v>2025</v>
+      </c>
+      <c r="B962" t="s">
+        <v>55</v>
+      </c>
+      <c r="C962">
+        <v>31</v>
+      </c>
+      <c r="D962" t="s">
+        <v>21</v>
+      </c>
+      <c r="E962" t="s">
+        <v>24</v>
+      </c>
+      <c r="F962" t="s">
+        <v>44</v>
+      </c>
+      <c r="G962">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A963">
+        <v>2025</v>
+      </c>
+      <c r="B963" t="s">
+        <v>55</v>
+      </c>
+      <c r="C963">
+        <v>31</v>
+      </c>
+      <c r="D963" t="s">
+        <v>21</v>
+      </c>
+      <c r="E963" t="s">
+        <v>24</v>
+      </c>
+      <c r="F963" t="s">
+        <v>45</v>
+      </c>
+      <c r="G963">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A964">
+        <v>2025</v>
+      </c>
+      <c r="B964" t="s">
+        <v>55</v>
+      </c>
+      <c r="C964">
+        <v>31</v>
+      </c>
+      <c r="D964" t="s">
+        <v>21</v>
+      </c>
+      <c r="E964" t="s">
+        <v>24</v>
+      </c>
+      <c r="F964" t="s">
+        <v>46</v>
+      </c>
+      <c r="G964">
+        <v>18791</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A965">
+        <v>2025</v>
+      </c>
+      <c r="B965" t="s">
+        <v>55</v>
+      </c>
+      <c r="C965">
+        <v>31</v>
+      </c>
+      <c r="D965" t="s">
+        <v>22</v>
+      </c>
+      <c r="E965" t="s">
+        <v>22</v>
+      </c>
+      <c r="F965" t="s">
+        <v>47</v>
+      </c>
+      <c r="G965" s="3">
+        <v>131316</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A966">
+        <v>2025</v>
+      </c>
+      <c r="B966" t="s">
+        <v>55</v>
+      </c>
+      <c r="C966">
+        <v>31</v>
+      </c>
+      <c r="D966" t="s">
+        <v>23</v>
+      </c>
+      <c r="E966" t="s">
+        <v>24</v>
+      </c>
+      <c r="F966" t="s">
+        <v>48</v>
+      </c>
+      <c r="G966">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="967" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A967">
+        <v>2025</v>
+      </c>
+      <c r="B967" t="s">
+        <v>55</v>
+      </c>
+      <c r="C967">
+        <v>31</v>
+      </c>
+      <c r="D967" t="s">
+        <v>23</v>
+      </c>
+      <c r="E967" t="s">
+        <v>24</v>
+      </c>
+      <c r="F967" t="s">
+        <v>49</v>
+      </c>
+      <c r="G967">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A968">
+        <v>2025</v>
+      </c>
+      <c r="B968" t="s">
+        <v>55</v>
+      </c>
+      <c r="C968">
+        <v>31</v>
+      </c>
+      <c r="D968" t="s">
+        <v>23</v>
+      </c>
+      <c r="E968" t="s">
+        <v>24</v>
+      </c>
+      <c r="F968" t="s">
+        <v>50</v>
+      </c>
+      <c r="G968">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="969" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A969">
+        <v>2025</v>
+      </c>
+      <c r="B969" t="s">
+        <v>55</v>
+      </c>
+      <c r="C969">
+        <v>31</v>
+      </c>
+      <c r="D969" t="s">
+        <v>23</v>
+      </c>
+      <c r="E969" t="s">
+        <v>24</v>
+      </c>
+      <c r="F969" t="s">
+        <v>51</v>
+      </c>
+      <c r="G969">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A970">
+        <v>2025</v>
+      </c>
+      <c r="B970" t="s">
+        <v>55</v>
+      </c>
+      <c r="C970">
+        <v>31</v>
+      </c>
+      <c r="D970" t="s">
+        <v>23</v>
+      </c>
+      <c r="E970" t="s">
+        <v>24</v>
+      </c>
+      <c r="F970" t="s">
+        <v>52</v>
+      </c>
+      <c r="G970">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A971">
+        <v>2025</v>
+      </c>
+      <c r="B971" t="s">
+        <v>55</v>
+      </c>
+      <c r="C971">
+        <v>31</v>
+      </c>
+      <c r="D971" t="s">
+        <v>23</v>
+      </c>
+      <c r="E971" t="s">
+        <v>24</v>
+      </c>
+      <c r="F971" t="s">
+        <v>53</v>
+      </c>
+      <c r="G971">
+        <v>8856</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A972">
+        <v>2025</v>
+      </c>
+      <c r="B972" t="s">
+        <v>55</v>
+      </c>
+      <c r="C972">
+        <v>27</v>
+      </c>
+      <c r="D972" t="s">
+        <v>13</v>
+      </c>
+      <c r="E972" t="s">
+        <v>24</v>
+      </c>
+      <c r="F972" t="s">
+        <v>25</v>
+      </c>
+      <c r="G972">
+        <v>5966</v>
+      </c>
+    </row>
+    <row r="973" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A973">
+        <v>2025</v>
+      </c>
+      <c r="B973" t="s">
+        <v>55</v>
+      </c>
+      <c r="C973">
+        <v>27</v>
+      </c>
+      <c r="D973" t="s">
+        <v>13</v>
+      </c>
+      <c r="E973" t="s">
+        <v>24</v>
+      </c>
+      <c r="F973" t="s">
+        <v>26</v>
+      </c>
+      <c r="G973" s="2">
+        <v>9833</v>
+      </c>
+    </row>
+    <row r="974" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A974">
+        <v>2025</v>
+      </c>
+      <c r="B974" t="s">
+        <v>55</v>
+      </c>
+      <c r="C974">
+        <v>27</v>
+      </c>
+      <c r="D974" t="s">
+        <v>13</v>
+      </c>
+      <c r="E974" t="s">
+        <v>24</v>
+      </c>
+      <c r="F974" t="s">
+        <v>27</v>
+      </c>
+      <c r="G974">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="975" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A975">
+        <v>2025</v>
+      </c>
+      <c r="B975" t="s">
+        <v>55</v>
+      </c>
+      <c r="C975">
+        <v>27</v>
+      </c>
+      <c r="D975" t="s">
+        <v>14</v>
+      </c>
+      <c r="E975" t="s">
+        <v>24</v>
+      </c>
+      <c r="F975" t="s">
+        <v>28</v>
+      </c>
+      <c r="G975">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A976">
+        <v>2025</v>
+      </c>
+      <c r="B976" t="s">
+        <v>55</v>
+      </c>
+      <c r="C976">
+        <v>27</v>
+      </c>
+      <c r="D976" t="s">
+        <v>15</v>
+      </c>
+      <c r="E976" t="s">
+        <v>24</v>
+      </c>
+      <c r="F976" t="s">
+        <v>29</v>
+      </c>
+      <c r="G976">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="977" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A977">
+        <v>2025</v>
+      </c>
+      <c r="B977" t="s">
+        <v>55</v>
+      </c>
+      <c r="C977">
+        <v>27</v>
+      </c>
+      <c r="D977" t="s">
+        <v>16</v>
+      </c>
+      <c r="E977" t="s">
+        <v>24</v>
+      </c>
+      <c r="F977" t="s">
+        <v>30</v>
+      </c>
+      <c r="G977">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A978">
+        <v>2025</v>
+      </c>
+      <c r="B978" t="s">
+        <v>55</v>
+      </c>
+      <c r="C978">
+        <v>27</v>
+      </c>
+      <c r="D978" t="s">
+        <v>16</v>
+      </c>
+      <c r="E978" t="s">
+        <v>24</v>
+      </c>
+      <c r="F978" t="s">
+        <v>31</v>
+      </c>
+      <c r="G978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A979">
+        <v>2025</v>
+      </c>
+      <c r="B979" t="s">
+        <v>55</v>
+      </c>
+      <c r="C979">
+        <v>27</v>
+      </c>
+      <c r="D979" t="s">
+        <v>17</v>
+      </c>
+      <c r="E979" t="s">
+        <v>24</v>
+      </c>
+      <c r="F979" t="s">
+        <v>32</v>
+      </c>
+      <c r="G979">
+        <v>19228</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A980">
+        <v>2025</v>
+      </c>
+      <c r="B980" t="s">
+        <v>55</v>
+      </c>
+      <c r="C980">
+        <v>27</v>
+      </c>
+      <c r="D980" t="s">
+        <v>17</v>
+      </c>
+      <c r="E980" t="s">
+        <v>24</v>
+      </c>
+      <c r="F980" t="s">
+        <v>33</v>
+      </c>
+      <c r="G980">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A981">
+        <v>2025</v>
+      </c>
+      <c r="B981" t="s">
+        <v>55</v>
+      </c>
+      <c r="C981">
+        <v>27</v>
+      </c>
+      <c r="D981" t="s">
+        <v>17</v>
+      </c>
+      <c r="E981" t="s">
+        <v>24</v>
+      </c>
+      <c r="F981" t="s">
+        <v>34</v>
+      </c>
+      <c r="G981">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A982">
+        <v>2025</v>
+      </c>
+      <c r="B982" t="s">
+        <v>55</v>
+      </c>
+      <c r="C982">
+        <v>27</v>
+      </c>
+      <c r="D982" t="s">
+        <v>17</v>
+      </c>
+      <c r="E982" t="s">
+        <v>24</v>
+      </c>
+      <c r="F982" t="s">
+        <v>35</v>
+      </c>
+      <c r="G982">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A983">
+        <v>2025</v>
+      </c>
+      <c r="B983" t="s">
+        <v>55</v>
+      </c>
+      <c r="C983">
+        <v>27</v>
+      </c>
+      <c r="D983" t="s">
+        <v>18</v>
+      </c>
+      <c r="E983" t="s">
+        <v>24</v>
+      </c>
+      <c r="F983" t="s">
+        <v>36</v>
+      </c>
+      <c r="G983">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="984" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A984">
+        <v>2025</v>
+      </c>
+      <c r="B984" t="s">
+        <v>55</v>
+      </c>
+      <c r="C984">
+        <v>27</v>
+      </c>
+      <c r="D984" t="s">
+        <v>19</v>
+      </c>
+      <c r="E984" t="s">
+        <v>24</v>
+      </c>
+      <c r="F984" t="s">
+        <v>37</v>
+      </c>
+      <c r="G984">
+        <v>8610</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A985">
+        <v>2025</v>
+      </c>
+      <c r="B985" t="s">
+        <v>55</v>
+      </c>
+      <c r="C985">
+        <v>27</v>
+      </c>
+      <c r="D985" t="s">
+        <v>19</v>
+      </c>
+      <c r="E985" t="s">
+        <v>24</v>
+      </c>
+      <c r="F985" t="s">
+        <v>38</v>
+      </c>
+      <c r="G985">
+        <v>10477</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A986">
+        <v>2025</v>
+      </c>
+      <c r="B986" t="s">
+        <v>55</v>
+      </c>
+      <c r="C986">
+        <v>27</v>
+      </c>
+      <c r="D986" t="s">
+        <v>19</v>
+      </c>
+      <c r="E986" t="s">
+        <v>24</v>
+      </c>
+      <c r="F986" t="s">
+        <v>39</v>
+      </c>
+      <c r="G986">
+        <v>11420</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A987">
+        <v>2025</v>
+      </c>
+      <c r="B987" t="s">
+        <v>55</v>
+      </c>
+      <c r="C987">
+        <v>27</v>
+      </c>
+      <c r="D987" t="s">
+        <v>19</v>
+      </c>
+      <c r="E987" t="s">
+        <v>24</v>
+      </c>
+      <c r="F987" t="s">
+        <v>40</v>
+      </c>
+      <c r="G987">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A988">
+        <v>2025</v>
+      </c>
+      <c r="B988" t="s">
+        <v>55</v>
+      </c>
+      <c r="C988">
+        <v>27</v>
+      </c>
+      <c r="D988" t="s">
+        <v>20</v>
+      </c>
+      <c r="E988" t="s">
+        <v>24</v>
+      </c>
+      <c r="F988" t="s">
+        <v>41</v>
+      </c>
+      <c r="G988">
+        <v>19250</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A989">
+        <v>2025</v>
+      </c>
+      <c r="B989" t="s">
+        <v>55</v>
+      </c>
+      <c r="C989">
+        <v>27</v>
+      </c>
+      <c r="D989" t="s">
+        <v>20</v>
+      </c>
+      <c r="E989" t="s">
+        <v>24</v>
+      </c>
+      <c r="F989" t="s">
+        <v>42</v>
+      </c>
+      <c r="G989">
+        <v>9290</v>
+      </c>
+    </row>
+    <row r="990" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A990">
+        <v>2025</v>
+      </c>
+      <c r="B990" t="s">
+        <v>55</v>
+      </c>
+      <c r="C990">
+        <v>27</v>
+      </c>
+      <c r="D990" t="s">
+        <v>21</v>
+      </c>
+      <c r="E990" t="s">
+        <v>24</v>
+      </c>
+      <c r="F990" t="s">
+        <v>43</v>
+      </c>
+      <c r="G990">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="991" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A991">
+        <v>2025</v>
+      </c>
+      <c r="B991" t="s">
+        <v>55</v>
+      </c>
+      <c r="C991">
+        <v>27</v>
+      </c>
+      <c r="D991" t="s">
+        <v>21</v>
+      </c>
+      <c r="E991" t="s">
+        <v>24</v>
+      </c>
+      <c r="F991" t="s">
+        <v>44</v>
+      </c>
+      <c r="G991">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="992" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A992">
+        <v>2025</v>
+      </c>
+      <c r="B992" t="s">
+        <v>55</v>
+      </c>
+      <c r="C992">
+        <v>27</v>
+      </c>
+      <c r="D992" t="s">
+        <v>21</v>
+      </c>
+      <c r="E992" t="s">
+        <v>24</v>
+      </c>
+      <c r="F992" t="s">
+        <v>45</v>
+      </c>
+      <c r="G992">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="993" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A993">
+        <v>2025</v>
+      </c>
+      <c r="B993" t="s">
+        <v>55</v>
+      </c>
+      <c r="C993">
+        <v>27</v>
+      </c>
+      <c r="D993" t="s">
+        <v>21</v>
+      </c>
+      <c r="E993" t="s">
+        <v>24</v>
+      </c>
+      <c r="F993" t="s">
+        <v>46</v>
+      </c>
+      <c r="G993">
+        <v>14621</v>
+      </c>
+    </row>
+    <row r="994" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A994">
+        <v>2025</v>
+      </c>
+      <c r="B994" t="s">
+        <v>55</v>
+      </c>
+      <c r="C994">
+        <v>27</v>
+      </c>
+      <c r="D994" t="s">
+        <v>22</v>
+      </c>
+      <c r="E994" t="s">
+        <v>22</v>
+      </c>
+      <c r="F994" t="s">
+        <v>47</v>
+      </c>
+      <c r="G994" s="3">
+        <v>138272</v>
+      </c>
+    </row>
+    <row r="995" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A995">
+        <v>2025</v>
+      </c>
+      <c r="B995" t="s">
+        <v>55</v>
+      </c>
+      <c r="C995">
+        <v>27</v>
+      </c>
+      <c r="D995" t="s">
+        <v>23</v>
+      </c>
+      <c r="E995" t="s">
+        <v>24</v>
+      </c>
+      <c r="F995" t="s">
+        <v>48</v>
+      </c>
+      <c r="G995">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="996" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A996">
+        <v>2025</v>
+      </c>
+      <c r="B996" t="s">
+        <v>55</v>
+      </c>
+      <c r="C996">
+        <v>27</v>
+      </c>
+      <c r="D996" t="s">
+        <v>23</v>
+      </c>
+      <c r="E996" t="s">
+        <v>24</v>
+      </c>
+      <c r="F996" t="s">
+        <v>49</v>
+      </c>
+      <c r="G996">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="997" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A997">
+        <v>2025</v>
+      </c>
+      <c r="B997" t="s">
+        <v>55</v>
+      </c>
+      <c r="C997">
+        <v>27</v>
+      </c>
+      <c r="D997" t="s">
+        <v>23</v>
+      </c>
+      <c r="E997" t="s">
+        <v>24</v>
+      </c>
+      <c r="F997" t="s">
+        <v>50</v>
+      </c>
+      <c r="G997">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A998">
+        <v>2025</v>
+      </c>
+      <c r="B998" t="s">
+        <v>55</v>
+      </c>
+      <c r="C998">
+        <v>27</v>
+      </c>
+      <c r="D998" t="s">
+        <v>23</v>
+      </c>
+      <c r="E998" t="s">
+        <v>24</v>
+      </c>
+      <c r="F998" t="s">
+        <v>51</v>
+      </c>
+      <c r="G998">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A999">
+        <v>2025</v>
+      </c>
+      <c r="B999" t="s">
+        <v>55</v>
+      </c>
+      <c r="C999">
+        <v>27</v>
+      </c>
+      <c r="D999" t="s">
+        <v>23</v>
+      </c>
+      <c r="E999" t="s">
+        <v>24</v>
+      </c>
+      <c r="F999" t="s">
+        <v>52</v>
+      </c>
+      <c r="G999">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1000">
+        <v>2025</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1000">
+        <v>27</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1000" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1000">
+        <v>11176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
